--- a/WIP/Deliverable/Report5/VMN_Integration Test Case_TestRound1_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report5/VMN_Integration Test Case_TestRound1_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Romeo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Romeo/Documents/201601JS01/WIP/Deliverable/Report5/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="743" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="743"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -1595,9 +1595,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -2907,9 +2908,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3174,6 +3172,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3238,8 +3239,8 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -3372,14 +3373,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3759,8 +3760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3792,7 +3793,7 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="178" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="206" t="s">
@@ -3800,7 +3801,7 @@
       </c>
       <c r="D4" s="206"/>
       <c r="E4" s="206"/>
-      <c r="F4" s="179" t="s">
+      <c r="F4" s="178" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -3808,7 +3809,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="178" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="206" t="s">
@@ -3816,7 +3817,7 @@
       </c>
       <c r="D5" s="206"/>
       <c r="E5" s="206"/>
-      <c r="F5" s="179" t="s">
+      <c r="F5" s="178" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -3833,11 +3834,11 @@
       </c>
       <c r="D6" s="208"/>
       <c r="E6" s="208"/>
-      <c r="F6" s="179" t="s">
+      <c r="F6" s="178" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="80">
-        <v>42422</v>
+        <v>42439</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3845,10 +3846,10 @@
       <c r="C7" s="208"/>
       <c r="D7" s="208"/>
       <c r="E7" s="208"/>
-      <c r="F7" s="179" t="s">
+      <c r="F7" s="178" t="s">
         <v>329</v>
       </c>
-      <c r="G7" s="137" t="s">
+      <c r="G7" s="136" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3865,33 +3866,33 @@
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="195" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="197" t="s">
+      <c r="B11" s="196" t="s">
         <v>331</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="197" t="s">
         <v>329</v>
       </c>
-      <c r="D11" s="198" t="s">
+      <c r="D11" s="197" t="s">
         <v>332</v>
       </c>
-      <c r="E11" s="198" t="s">
+      <c r="E11" s="197" t="s">
         <v>333</v>
       </c>
-      <c r="F11" s="198" t="s">
+      <c r="F11" s="197" t="s">
         <v>334</v>
       </c>
-      <c r="G11" s="199" t="s">
+      <c r="G11" s="198" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="81">
-        <v>42422</v>
+        <v>42439</v>
       </c>
       <c r="C12" s="82" t="s">
         <v>37</v>
@@ -3900,7 +3901,7 @@
       <c r="E12" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="108" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="17" t="s">
@@ -4078,7 +4079,7 @@
       <c r="C9" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="132" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="107" t="s">
@@ -4095,7 +4096,7 @@
       <c r="C10" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="166" t="s">
+      <c r="D10" s="165" t="s">
         <v>127</v>
       </c>
       <c r="E10" s="107" t="s">
@@ -4112,7 +4113,7 @@
       <c r="C11" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="132" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="107" t="s">
@@ -4212,8 +4213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4221,7 +4222,8 @@
     <col min="1" max="1" width="8.83203125" style="8"/>
     <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" style="8" customWidth="1"/>
-    <col min="4" max="7" width="8.83203125" style="8"/>
+    <col min="4" max="6" width="8.83203125" style="8"/>
+    <col min="7" max="7" width="11.5" style="8" customWidth="1"/>
     <col min="8" max="9" width="33.1640625" style="8" customWidth="1"/>
     <col min="10" max="16384" width="8.83203125" style="8"/>
   </cols>
@@ -4296,7 +4298,9 @@
         <v>5</v>
       </c>
       <c r="F5" s="213"/>
-      <c r="G5" s="108"/>
+      <c r="G5" s="227">
+        <v>42439</v>
+      </c>
       <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4342,7 +4346,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="65"/>
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="133" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="66" t="s">
@@ -4366,10 +4370,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="65"/>
-      <c r="B11" s="135">
+      <c r="B11" s="134">
         <v>1</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="132" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="70">
@@ -4395,10 +4399,10 @@
     </row>
     <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="69"/>
-      <c r="B12" s="135">
+      <c r="B12" s="134">
         <v>2</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="165" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="70">
@@ -4424,10 +4428,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="69"/>
-      <c r="B13" s="135">
+      <c r="B13" s="134">
         <v>3</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="132" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="70">
@@ -4453,7 +4457,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="64"/>
-      <c r="B14" s="136"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="72" t="s">
         <v>33</v>
       </c>
@@ -4526,7 +4530,7 @@
       <c r="D18" s="64"/>
     </row>
     <row r="19" spans="2:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="C19" s="165"/>
+      <c r="C19" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4557,13 +4561,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="121" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="120" customWidth="1"/>
     <col min="2" max="2" width="39.83203125" style="99" customWidth="1"/>
     <col min="3" max="3" width="33" style="99" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" style="99" customWidth="1"/>
@@ -4577,7 +4581,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="113" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="86"/>
@@ -4591,7 +4595,7 @@
       <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="114" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="219" t="s">
@@ -4602,7 +4606,7 @@
       <c r="E2" s="219"/>
       <c r="F2" s="219"/>
       <c r="G2" s="219"/>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="130" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="89"/>
@@ -4611,7 +4615,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="115" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="219" t="s">
@@ -4622,7 +4626,7 @@
       <c r="E3" s="219"/>
       <c r="F3" s="219"/>
       <c r="G3" s="219"/>
-      <c r="H3" s="131" t="s">
+      <c r="H3" s="130" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="89"/>
@@ -4631,7 +4635,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="114" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="220" t="s">
@@ -4642,14 +4646,14 @@
       <c r="E4" s="220"/>
       <c r="F4" s="220"/>
       <c r="G4" s="220"/>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="130" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="89"/>
       <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="116" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="91" t="s">
@@ -4666,7 +4670,7 @@
       </c>
       <c r="F5" s="221"/>
       <c r="G5" s="221"/>
-      <c r="H5" s="132" t="s">
+      <c r="H5" s="131" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="89"/>
@@ -4675,7 +4679,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="118">
+      <c r="A6" s="117">
         <f>COUNTIF(F11:G229,"Pass")</f>
         <v>76</v>
       </c>
@@ -4704,31 +4708,31 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="151"/>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
+      <c r="A7" s="150"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
       <c r="H7" s="93"/>
       <c r="I7" s="89"/>
       <c r="J7" s="89"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="151"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
       <c r="H8" s="93"/>
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="119"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="89"/>
       <c r="C9" s="89"/>
       <c r="D9" s="97"/>
@@ -4740,7 +4744,7 @@
       <c r="J9" s="94"/>
     </row>
     <row r="10" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="119" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="51" t="s">
@@ -4784,7 +4788,7 @@
       <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="175" t="str">
+      <c r="A12" s="174" t="str">
         <f t="shared" ref="A12:A47" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[User Module-2]</v>
       </c>
@@ -4794,44 +4798,44 @@
       <c r="C12" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="112" t="s">
         <v>145</v>
       </c>
       <c r="E12" s="85"/>
-      <c r="F12" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="227">
+      <c r="F12" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="204">
         <v>42554</v>
       </c>
       <c r="I12" s="101"/>
       <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="175" t="str">
+      <c r="A13" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-3]</v>
       </c>
       <c r="B13" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="167" t="s">
+      <c r="C13" s="166" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="169" t="s">
+      <c r="D13" s="168" t="s">
         <v>146</v>
       </c>
       <c r="E13" s="85"/>
-      <c r="F13" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="227">
+      <c r="F13" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="204">
         <v>42554</v>
       </c>
       <c r="I13" s="101"/>
@@ -4843,7 +4847,7 @@
         <v>131</v>
       </c>
       <c r="C14" s="54"/>
-      <c r="D14" s="168"/>
+      <c r="D14" s="167"/>
       <c r="E14" s="54"/>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
@@ -4852,7 +4856,7 @@
       <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="175" t="str">
+      <c r="A15" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-5]</v>
       </c>
@@ -4868,20 +4872,20 @@
       <c r="E15" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="227">
+      <c r="F15" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="204">
         <v>42554</v>
       </c>
       <c r="I15" s="101"/>
       <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="175" t="str">
+      <c r="A16" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-6]</v>
       </c>
@@ -4895,13 +4899,13 @@
         <v>345</v>
       </c>
       <c r="E16" s="85"/>
-      <c r="F16" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="227">
+      <c r="F16" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="204">
         <v>42554</v>
       </c>
       <c r="I16" s="101"/>
@@ -4922,7 +4926,7 @@
       <c r="J17" s="89"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="175" t="str">
+      <c r="A18" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-8]</v>
       </c>
@@ -4936,20 +4940,20 @@
         <v>140</v>
       </c>
       <c r="E18" s="98"/>
-      <c r="F18" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="227">
+      <c r="F18" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="204">
         <v>42554</v>
       </c>
-      <c r="I18" s="141"/>
+      <c r="I18" s="140"/>
       <c r="J18" s="89"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="175" t="str">
+      <c r="A19" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-9]</v>
       </c>
@@ -4965,16 +4969,16 @@
       <c r="E19" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="227">
+      <c r="F19" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="204">
         <v>42554</v>
       </c>
-      <c r="I19" s="138"/>
+      <c r="I19" s="137"/>
       <c r="J19" s="89"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4992,7 +4996,7 @@
       <c r="J20" s="99"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="175" t="str">
+      <c r="A21" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-11]</v>
       </c>
@@ -5008,16 +5012,16 @@
       <c r="E21" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="227">
+      <c r="F21" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="204">
         <v>42554</v>
       </c>
-      <c r="I21" s="141"/>
+      <c r="I21" s="140"/>
       <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5035,7 +5039,7 @@
       <c r="J22" s="99"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="175" t="str">
+      <c r="A23" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-13]</v>
       </c>
@@ -5051,16 +5055,16 @@
       <c r="E23" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="227">
+      <c r="F23" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="204">
         <v>42554</v>
       </c>
-      <c r="I23" s="138"/>
+      <c r="I23" s="137"/>
       <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5070,15 +5074,15 @@
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
-      <c r="E24" s="171"/>
+      <c r="E24" s="170"/>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="173"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="172"/>
       <c r="J24" s="99"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="175" t="str">
+      <c r="A25" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-15]</v>
       </c>
@@ -5088,642 +5092,642 @@
       <c r="C25" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="170" t="s">
+      <c r="D25" s="169" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="172" t="s">
+      <c r="E25" s="171" t="s">
         <v>195</v>
       </c>
-      <c r="F25" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="227">
+      <c r="F25" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="204">
         <v>42554</v>
       </c>
-      <c r="I25" s="174"/>
+      <c r="I25" s="173"/>
       <c r="J25" s="99"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="53"/>
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="142"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="141"/>
       <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="175" t="str">
+      <c r="A27" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-17]</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="110" t="s">
+      <c r="D27" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="111" t="s">
+      <c r="E27" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="227">
+      <c r="F27" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="204">
         <v>42554</v>
       </c>
-      <c r="I27" s="112"/>
+      <c r="I27" s="111"/>
       <c r="J27" s="99"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="53"/>
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="142"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="141"/>
       <c r="J28" s="99"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="175" t="str">
+      <c r="A29" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-19]</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="110" t="s">
+      <c r="C29" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="110" t="s">
+      <c r="D29" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="111" t="s">
+      <c r="E29" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="227">
+      <c r="F29" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="204">
         <v>42554</v>
       </c>
-      <c r="I29" s="112"/>
+      <c r="I29" s="111"/>
       <c r="J29" s="99"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="53"/>
-      <c r="B30" s="143" t="s">
+      <c r="B30" s="142" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="142"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="141"/>
       <c r="J30" s="99"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="175" t="str">
+      <c r="A31" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-21]</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="111" t="s">
+      <c r="E31" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="227">
+      <c r="F31" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="204">
         <v>42554</v>
       </c>
-      <c r="I31" s="112"/>
+      <c r="I31" s="111"/>
       <c r="J31" s="99"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="53"/>
-      <c r="B32" s="143" t="s">
+      <c r="B32" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="142"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="141"/>
       <c r="J32" s="99"/>
     </row>
     <row r="33" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="175" t="str">
+      <c r="A33" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-23]</v>
       </c>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="110" t="s">
+      <c r="C33" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="D33" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="E33" s="111" t="s">
+      <c r="E33" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="F33" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="227">
+      <c r="F33" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="204">
         <v>42554</v>
       </c>
-      <c r="I33" s="112"/>
+      <c r="I33" s="111"/>
       <c r="J33" s="99"/>
     </row>
     <row r="34" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="53"/>
-      <c r="B34" s="143" t="s">
+      <c r="B34" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="142"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="141"/>
       <c r="J34" s="99"/>
     </row>
     <row r="35" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="175" t="str">
+      <c r="A35" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-25]</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="109" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="110" t="s">
+      <c r="C35" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="D35" s="110" t="s">
+      <c r="D35" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="111" t="s">
+      <c r="E35" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="F35" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="227">
+      <c r="F35" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="204">
         <v>42554</v>
       </c>
-      <c r="I35" s="112"/>
+      <c r="I35" s="111"/>
       <c r="J35" s="99"/>
     </row>
     <row r="36" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="53"/>
-      <c r="B36" s="143" t="s">
+      <c r="B36" s="142" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="142"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="141"/>
       <c r="J36" s="99"/>
     </row>
     <row r="37" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="175" t="str">
+      <c r="A37" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-27]</v>
       </c>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="109" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="110" t="s">
+      <c r="C37" s="109" t="s">
         <v>341</v>
       </c>
-      <c r="D37" s="110" t="s">
+      <c r="D37" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="E37" s="111" t="s">
+      <c r="E37" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="F37" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="227">
+      <c r="F37" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="204">
         <v>42554</v>
       </c>
-      <c r="I37" s="112"/>
+      <c r="I37" s="111"/>
       <c r="J37" s="99"/>
     </row>
     <row r="38" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="53"/>
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="142"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="141"/>
       <c r="J38" s="99"/>
     </row>
-    <row r="39" spans="1:23" s="143" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="175" t="str">
+    <row r="39" spans="1:23" s="142" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-29]</v>
       </c>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="109" t="s">
         <v>342</v>
       </c>
-      <c r="D39" s="110" t="s">
+      <c r="D39" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="111"/>
-      <c r="F39" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="227">
+      <c r="E39" s="110"/>
+      <c r="F39" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="204">
         <v>42554</v>
       </c>
-      <c r="I39" s="112"/>
-      <c r="K39" s="201"/>
-      <c r="L39" s="201"/>
-      <c r="M39" s="201"/>
-      <c r="N39" s="201"/>
-      <c r="O39" s="201"/>
-      <c r="P39" s="201"/>
-      <c r="Q39" s="201"/>
-      <c r="R39" s="201"/>
-      <c r="S39" s="201"/>
-      <c r="T39" s="201"/>
-      <c r="U39" s="201"/>
-      <c r="V39" s="201"/>
-      <c r="W39" s="140"/>
-    </row>
-    <row r="40" spans="1:23" s="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I39" s="111"/>
+      <c r="K39" s="200"/>
+      <c r="L39" s="200"/>
+      <c r="M39" s="200"/>
+      <c r="N39" s="200"/>
+      <c r="O39" s="200"/>
+      <c r="P39" s="200"/>
+      <c r="Q39" s="200"/>
+      <c r="R39" s="200"/>
+      <c r="S39" s="200"/>
+      <c r="T39" s="200"/>
+      <c r="U39" s="200"/>
+      <c r="V39" s="200"/>
+      <c r="W39" s="139"/>
+    </row>
+    <row r="40" spans="1:23" s="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="53"/>
-      <c r="B40" s="143" t="s">
+      <c r="B40" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="142"/>
-      <c r="K40" s="202"/>
-      <c r="L40" s="202"/>
-      <c r="M40" s="202"/>
-      <c r="N40" s="202"/>
-      <c r="O40" s="202"/>
-      <c r="P40" s="202"/>
-      <c r="Q40" s="202"/>
-      <c r="R40" s="202"/>
-      <c r="S40" s="202"/>
-      <c r="T40" s="202"/>
-      <c r="U40" s="202"/>
-      <c r="V40" s="202"/>
-    </row>
-    <row r="41" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="175" t="str">
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="141"/>
+      <c r="K40" s="201"/>
+      <c r="L40" s="201"/>
+      <c r="M40" s="201"/>
+      <c r="N40" s="201"/>
+      <c r="O40" s="201"/>
+      <c r="P40" s="201"/>
+      <c r="Q40" s="201"/>
+      <c r="R40" s="201"/>
+      <c r="S40" s="201"/>
+      <c r="T40" s="201"/>
+      <c r="U40" s="201"/>
+      <c r="V40" s="201"/>
+    </row>
+    <row r="41" spans="1:23" s="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-31]</v>
       </c>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="110" t="s">
+      <c r="D41" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="E41" s="111" t="s">
+      <c r="E41" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="F41" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="227">
+      <c r="F41" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="204">
         <v>42554</v>
       </c>
-      <c r="I41" s="112"/>
-      <c r="K41" s="202"/>
-      <c r="L41" s="202"/>
-      <c r="M41" s="202"/>
-      <c r="N41" s="202"/>
-      <c r="O41" s="202"/>
-      <c r="P41" s="202"/>
-      <c r="Q41" s="202"/>
-      <c r="R41" s="202"/>
-      <c r="S41" s="202"/>
-      <c r="T41" s="202"/>
-      <c r="U41" s="202"/>
-      <c r="V41" s="202"/>
-    </row>
-    <row r="42" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I41" s="111"/>
+      <c r="K41" s="201"/>
+      <c r="L41" s="201"/>
+      <c r="M41" s="201"/>
+      <c r="N41" s="201"/>
+      <c r="O41" s="201"/>
+      <c r="P41" s="201"/>
+      <c r="Q41" s="201"/>
+      <c r="R41" s="201"/>
+      <c r="S41" s="201"/>
+      <c r="T41" s="201"/>
+      <c r="U41" s="201"/>
+      <c r="V41" s="201"/>
+    </row>
+    <row r="42" spans="1:23" s="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="53"/>
-      <c r="B42" s="143" t="s">
+      <c r="B42" s="142" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="142"/>
-      <c r="K42" s="202"/>
-      <c r="L42" s="202"/>
-      <c r="M42" s="202"/>
-      <c r="N42" s="202"/>
-      <c r="O42" s="202"/>
-      <c r="P42" s="202"/>
-      <c r="Q42" s="202"/>
-      <c r="R42" s="202"/>
-      <c r="S42" s="202"/>
-      <c r="T42" s="202"/>
-      <c r="U42" s="202"/>
-      <c r="V42" s="202"/>
-    </row>
-    <row r="43" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="175" t="str">
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="141"/>
+      <c r="K42" s="201"/>
+      <c r="L42" s="201"/>
+      <c r="M42" s="201"/>
+      <c r="N42" s="201"/>
+      <c r="O42" s="201"/>
+      <c r="P42" s="201"/>
+      <c r="Q42" s="201"/>
+      <c r="R42" s="201"/>
+      <c r="S42" s="201"/>
+      <c r="T42" s="201"/>
+      <c r="U42" s="201"/>
+      <c r="V42" s="201"/>
+    </row>
+    <row r="43" spans="1:23" s="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-33]</v>
       </c>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="110" t="s">
+      <c r="C43" s="109" t="s">
         <v>343</v>
       </c>
-      <c r="D43" s="110" t="s">
+      <c r="D43" s="109" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="111"/>
-      <c r="F43" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="227">
+      <c r="E43" s="110"/>
+      <c r="F43" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="204">
         <v>42554</v>
       </c>
-      <c r="I43" s="112"/>
-      <c r="K43" s="202"/>
-      <c r="L43" s="202"/>
-      <c r="M43" s="202"/>
-      <c r="N43" s="202"/>
-      <c r="O43" s="202"/>
-      <c r="P43" s="202"/>
-      <c r="Q43" s="202"/>
-      <c r="R43" s="202"/>
-      <c r="S43" s="202"/>
-      <c r="T43" s="202"/>
-      <c r="U43" s="202"/>
-      <c r="V43" s="202"/>
-    </row>
-    <row r="44" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I43" s="111"/>
+      <c r="K43" s="201"/>
+      <c r="L43" s="201"/>
+      <c r="M43" s="201"/>
+      <c r="N43" s="201"/>
+      <c r="O43" s="201"/>
+      <c r="P43" s="201"/>
+      <c r="Q43" s="201"/>
+      <c r="R43" s="201"/>
+      <c r="S43" s="201"/>
+      <c r="T43" s="201"/>
+      <c r="U43" s="201"/>
+      <c r="V43" s="201"/>
+    </row>
+    <row r="44" spans="1:23" s="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="53"/>
-      <c r="B44" s="143" t="s">
+      <c r="B44" s="142" t="s">
         <v>209</v>
       </c>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="142"/>
-      <c r="K44" s="202"/>
-      <c r="L44" s="202"/>
-      <c r="M44" s="202"/>
-      <c r="N44" s="202"/>
-      <c r="O44" s="202"/>
-      <c r="P44" s="202"/>
-      <c r="Q44" s="202"/>
-      <c r="R44" s="202"/>
-      <c r="S44" s="202"/>
-      <c r="T44" s="202"/>
-      <c r="U44" s="202"/>
-      <c r="V44" s="202"/>
-    </row>
-    <row r="45" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="175" t="str">
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="141"/>
+      <c r="K44" s="201"/>
+      <c r="L44" s="201"/>
+      <c r="M44" s="201"/>
+      <c r="N44" s="201"/>
+      <c r="O44" s="201"/>
+      <c r="P44" s="201"/>
+      <c r="Q44" s="201"/>
+      <c r="R44" s="201"/>
+      <c r="S44" s="201"/>
+      <c r="T44" s="201"/>
+      <c r="U44" s="201"/>
+      <c r="V44" s="201"/>
+    </row>
+    <row r="45" spans="1:23" s="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-35]</v>
       </c>
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="C45" s="169" t="s">
+      <c r="C45" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="169" t="s">
+      <c r="D45" s="168" t="s">
         <v>213</v>
       </c>
-      <c r="E45" s="180" t="s">
+      <c r="E45" s="179" t="s">
         <v>217</v>
       </c>
-      <c r="F45" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="227">
+      <c r="F45" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="204">
         <v>42554</v>
       </c>
-      <c r="I45" s="181"/>
-      <c r="K45" s="202"/>
-      <c r="L45" s="202"/>
-      <c r="M45" s="202"/>
-      <c r="N45" s="202"/>
-      <c r="O45" s="202"/>
-      <c r="P45" s="202"/>
-      <c r="Q45" s="202"/>
-      <c r="R45" s="202"/>
-      <c r="S45" s="202"/>
-      <c r="T45" s="202"/>
-      <c r="U45" s="202"/>
-      <c r="V45" s="202"/>
-    </row>
-    <row r="46" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I45" s="180"/>
+      <c r="K45" s="201"/>
+      <c r="L45" s="201"/>
+      <c r="M45" s="201"/>
+      <c r="N45" s="201"/>
+      <c r="O45" s="201"/>
+      <c r="P45" s="201"/>
+      <c r="Q45" s="201"/>
+      <c r="R45" s="201"/>
+      <c r="S45" s="201"/>
+      <c r="T45" s="201"/>
+      <c r="U45" s="201"/>
+      <c r="V45" s="201"/>
+    </row>
+    <row r="46" spans="1:23" s="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="53"/>
-      <c r="B46" s="143" t="s">
+      <c r="B46" s="142" t="s">
         <v>210</v>
       </c>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="142"/>
-      <c r="K46" s="202"/>
-      <c r="L46" s="202"/>
-      <c r="M46" s="202"/>
-      <c r="N46" s="202"/>
-      <c r="O46" s="202"/>
-      <c r="P46" s="202"/>
-      <c r="Q46" s="202"/>
-      <c r="R46" s="202"/>
-      <c r="S46" s="202"/>
-      <c r="T46" s="202"/>
-      <c r="U46" s="202"/>
-      <c r="V46" s="202"/>
-    </row>
-    <row r="47" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="175" t="str">
+      <c r="C46" s="139"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="141"/>
+      <c r="K46" s="201"/>
+      <c r="L46" s="201"/>
+      <c r="M46" s="201"/>
+      <c r="N46" s="201"/>
+      <c r="O46" s="201"/>
+      <c r="P46" s="201"/>
+      <c r="Q46" s="201"/>
+      <c r="R46" s="201"/>
+      <c r="S46" s="201"/>
+      <c r="T46" s="201"/>
+      <c r="U46" s="201"/>
+      <c r="V46" s="201"/>
+    </row>
+    <row r="47" spans="1:23" s="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[User Module-37]</v>
       </c>
-      <c r="B47" s="169" t="s">
+      <c r="B47" s="168" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="169" t="s">
+      <c r="C47" s="168" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="169" t="s">
+      <c r="D47" s="168" t="s">
         <v>216</v>
       </c>
-      <c r="E47" s="180" t="s">
+      <c r="E47" s="179" t="s">
         <v>218</v>
       </c>
-      <c r="F47" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="227">
+      <c r="F47" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="204">
         <v>42554</v>
       </c>
-      <c r="I47" s="181"/>
-      <c r="K47" s="202"/>
-      <c r="L47" s="202"/>
-      <c r="M47" s="202"/>
-      <c r="N47" s="202"/>
-      <c r="O47" s="202"/>
-      <c r="P47" s="202"/>
-      <c r="Q47" s="202"/>
-      <c r="R47" s="202"/>
-      <c r="S47" s="202"/>
-      <c r="T47" s="202"/>
-      <c r="U47" s="202"/>
-      <c r="V47" s="202"/>
-    </row>
-    <row r="48" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="161"/>
-      <c r="B48" s="162"/>
-      <c r="C48" s="162"/>
-      <c r="D48" s="162"/>
-      <c r="E48" s="161"/>
-      <c r="F48" s="162"/>
-      <c r="G48" s="162"/>
-      <c r="H48" s="163"/>
-      <c r="I48" s="164"/>
-      <c r="K48" s="202"/>
-      <c r="L48" s="202"/>
-      <c r="M48" s="202"/>
-      <c r="N48" s="202"/>
-      <c r="O48" s="202"/>
-      <c r="P48" s="202"/>
-      <c r="Q48" s="202"/>
-      <c r="R48" s="202"/>
-      <c r="S48" s="202"/>
-      <c r="T48" s="202"/>
-      <c r="U48" s="202"/>
-      <c r="V48" s="202"/>
-    </row>
-    <row r="49" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="161"/>
-      <c r="B49" s="162"/>
-      <c r="C49" s="162"/>
-      <c r="D49" s="162"/>
-      <c r="E49" s="161"/>
-      <c r="F49" s="162"/>
-      <c r="G49" s="162"/>
-      <c r="H49" s="163"/>
-      <c r="I49" s="164"/>
-      <c r="K49" s="202"/>
-      <c r="L49" s="202"/>
-      <c r="M49" s="202"/>
-      <c r="N49" s="202"/>
-      <c r="O49" s="202"/>
-      <c r="P49" s="202"/>
-      <c r="Q49" s="202"/>
-      <c r="R49" s="202"/>
-      <c r="S49" s="202"/>
-      <c r="T49" s="202"/>
-      <c r="U49" s="202"/>
-      <c r="V49" s="202"/>
-    </row>
-    <row r="50" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="182"/>
-      <c r="B50" s="182" t="s">
+      <c r="I47" s="180"/>
+      <c r="K47" s="201"/>
+      <c r="L47" s="201"/>
+      <c r="M47" s="201"/>
+      <c r="N47" s="201"/>
+      <c r="O47" s="201"/>
+      <c r="P47" s="201"/>
+      <c r="Q47" s="201"/>
+      <c r="R47" s="201"/>
+      <c r="S47" s="201"/>
+      <c r="T47" s="201"/>
+      <c r="U47" s="201"/>
+      <c r="V47" s="201"/>
+    </row>
+    <row r="48" spans="1:23" s="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="160"/>
+      <c r="B48" s="161"/>
+      <c r="C48" s="161"/>
+      <c r="D48" s="161"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="161"/>
+      <c r="H48" s="162"/>
+      <c r="I48" s="163"/>
+      <c r="K48" s="201"/>
+      <c r="L48" s="201"/>
+      <c r="M48" s="201"/>
+      <c r="N48" s="201"/>
+      <c r="O48" s="201"/>
+      <c r="P48" s="201"/>
+      <c r="Q48" s="201"/>
+      <c r="R48" s="201"/>
+      <c r="S48" s="201"/>
+      <c r="T48" s="201"/>
+      <c r="U48" s="201"/>
+      <c r="V48" s="201"/>
+    </row>
+    <row r="49" spans="1:23" s="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="160"/>
+      <c r="B49" s="161"/>
+      <c r="C49" s="161"/>
+      <c r="D49" s="161"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="161"/>
+      <c r="G49" s="161"/>
+      <c r="H49" s="162"/>
+      <c r="I49" s="163"/>
+      <c r="K49" s="201"/>
+      <c r="L49" s="201"/>
+      <c r="M49" s="201"/>
+      <c r="N49" s="201"/>
+      <c r="O49" s="201"/>
+      <c r="P49" s="201"/>
+      <c r="Q49" s="201"/>
+      <c r="R49" s="201"/>
+      <c r="S49" s="201"/>
+      <c r="T49" s="201"/>
+      <c r="U49" s="201"/>
+      <c r="V49" s="201"/>
+    </row>
+    <row r="50" spans="1:23" s="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="181"/>
+      <c r="B50" s="181" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="216"/>
@@ -5733,669 +5737,669 @@
       <c r="G50" s="217"/>
       <c r="H50" s="217"/>
       <c r="I50" s="218"/>
-      <c r="K50" s="202"/>
-      <c r="L50" s="202"/>
-      <c r="M50" s="202"/>
-      <c r="N50" s="202"/>
-      <c r="O50" s="202"/>
-      <c r="P50" s="202"/>
-      <c r="Q50" s="202"/>
-      <c r="R50" s="202"/>
-      <c r="S50" s="202"/>
-      <c r="T50" s="202"/>
-      <c r="U50" s="202"/>
-      <c r="V50" s="202"/>
-    </row>
-    <row r="51" spans="1:23" s="143" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="155"/>
-      <c r="B51" s="156" t="s">
+      <c r="K50" s="201"/>
+      <c r="L50" s="201"/>
+      <c r="M50" s="201"/>
+      <c r="N50" s="201"/>
+      <c r="O50" s="201"/>
+      <c r="P50" s="201"/>
+      <c r="Q50" s="201"/>
+      <c r="R50" s="201"/>
+      <c r="S50" s="201"/>
+      <c r="T50" s="201"/>
+      <c r="U50" s="201"/>
+      <c r="V50" s="201"/>
+    </row>
+    <row r="51" spans="1:23" s="142" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="154"/>
+      <c r="B51" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="157"/>
-      <c r="D51" s="157"/>
-      <c r="E51" s="157"/>
-      <c r="F51" s="157"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="K51" s="201"/>
-      <c r="L51" s="201"/>
-      <c r="M51" s="201"/>
-      <c r="N51" s="201"/>
-      <c r="O51" s="201"/>
-      <c r="P51" s="201"/>
-      <c r="Q51" s="201"/>
-      <c r="R51" s="201"/>
-      <c r="S51" s="201"/>
-      <c r="T51" s="201"/>
-      <c r="U51" s="201"/>
-      <c r="V51" s="201"/>
-      <c r="W51" s="140"/>
-    </row>
-    <row r="52" spans="1:23" s="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="110" t="str">
+      <c r="C51" s="156"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="156"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="156"/>
+      <c r="K51" s="200"/>
+      <c r="L51" s="200"/>
+      <c r="M51" s="200"/>
+      <c r="N51" s="200"/>
+      <c r="O51" s="200"/>
+      <c r="P51" s="200"/>
+      <c r="Q51" s="200"/>
+      <c r="R51" s="200"/>
+      <c r="S51" s="200"/>
+      <c r="T51" s="200"/>
+      <c r="U51" s="200"/>
+      <c r="V51" s="200"/>
+      <c r="W51" s="139"/>
+    </row>
+    <row r="52" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A51)+1)</f>
         <v>ID-22</v>
       </c>
-      <c r="B52" s="110" t="s">
+      <c r="B52" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="110" t="s">
+      <c r="C52" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="110" t="s">
+      <c r="D52" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="110"/>
-      <c r="F52" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="227">
+      <c r="E52" s="109"/>
+      <c r="F52" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="204">
         <v>42585</v>
       </c>
-      <c r="I52" s="158"/>
-      <c r="K52" s="203"/>
-      <c r="L52" s="203"/>
-      <c r="M52" s="203"/>
-      <c r="N52" s="203"/>
-      <c r="O52" s="203"/>
-      <c r="P52" s="203"/>
-      <c r="Q52" s="203"/>
-      <c r="R52" s="203"/>
-      <c r="S52" s="203"/>
-      <c r="T52" s="203"/>
-      <c r="U52" s="203"/>
-      <c r="V52" s="203"/>
-    </row>
-    <row r="53" spans="1:23" s="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="110" t="str">
+      <c r="I52" s="157"/>
+      <c r="K52" s="202"/>
+      <c r="L52" s="202"/>
+      <c r="M52" s="202"/>
+      <c r="N52" s="202"/>
+      <c r="O52" s="202"/>
+      <c r="P52" s="202"/>
+      <c r="Q52" s="202"/>
+      <c r="R52" s="202"/>
+      <c r="S52" s="202"/>
+      <c r="T52" s="202"/>
+      <c r="U52" s="202"/>
+      <c r="V52" s="202"/>
+    </row>
+    <row r="53" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A52)+1)</f>
         <v>ID-23</v>
       </c>
-      <c r="B53" s="110" t="s">
+      <c r="B53" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="110" t="s">
+      <c r="C53" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="D53" s="110" t="s">
+      <c r="D53" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="110"/>
-      <c r="F53" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="227">
+      <c r="E53" s="109"/>
+      <c r="F53" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="204">
         <v>42585</v>
       </c>
-      <c r="I53" s="158"/>
-      <c r="K53" s="203"/>
-      <c r="L53" s="203"/>
-      <c r="M53" s="203"/>
-      <c r="N53" s="203"/>
-      <c r="O53" s="203"/>
-      <c r="P53" s="203"/>
-      <c r="Q53" s="203"/>
-      <c r="R53" s="203"/>
-      <c r="S53" s="203"/>
-      <c r="T53" s="203"/>
-      <c r="U53" s="203"/>
-      <c r="V53" s="203"/>
-    </row>
-    <row r="54" spans="1:23" s="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="110" t="str">
+      <c r="I53" s="157"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="202"/>
+      <c r="M53" s="202"/>
+      <c r="N53" s="202"/>
+      <c r="O53" s="202"/>
+      <c r="P53" s="202"/>
+      <c r="Q53" s="202"/>
+      <c r="R53" s="202"/>
+      <c r="S53" s="202"/>
+      <c r="T53" s="202"/>
+      <c r="U53" s="202"/>
+      <c r="V53" s="202"/>
+    </row>
+    <row r="54" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A53)+1)</f>
         <v>ID-24</v>
       </c>
-      <c r="B54" s="110" t="s">
+      <c r="B54" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="110" t="s">
+      <c r="C54" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="110" t="s">
+      <c r="D54" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="227">
+      <c r="E54" s="109"/>
+      <c r="F54" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="204">
         <v>42585</v>
       </c>
-      <c r="I54" s="158"/>
-      <c r="K54" s="203"/>
-      <c r="L54" s="203"/>
-      <c r="M54" s="203"/>
-      <c r="N54" s="203"/>
-      <c r="O54" s="203"/>
-      <c r="P54" s="203"/>
-      <c r="Q54" s="203"/>
-      <c r="R54" s="203"/>
-      <c r="S54" s="203"/>
-      <c r="T54" s="203"/>
-      <c r="U54" s="203"/>
-      <c r="V54" s="203"/>
-    </row>
-    <row r="55" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="110" t="str">
+      <c r="I54" s="157"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="202"/>
+      <c r="O54" s="202"/>
+      <c r="P54" s="202"/>
+      <c r="Q54" s="202"/>
+      <c r="R54" s="202"/>
+      <c r="S54" s="202"/>
+      <c r="T54" s="202"/>
+      <c r="U54" s="202"/>
+      <c r="V54" s="202"/>
+    </row>
+    <row r="55" spans="1:23" s="158" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A54)+1)</f>
         <v>ID-25</v>
       </c>
-      <c r="B55" s="110" t="s">
+      <c r="B55" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="110" t="s">
+      <c r="C55" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="110" t="s">
+      <c r="D55" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="110"/>
-      <c r="F55" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="227">
+      <c r="E55" s="109"/>
+      <c r="F55" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="204">
         <v>42585</v>
       </c>
-      <c r="I55" s="158"/>
-      <c r="K55" s="202"/>
-      <c r="L55" s="202"/>
-      <c r="M55" s="202"/>
-      <c r="N55" s="202"/>
-      <c r="O55" s="202"/>
-      <c r="P55" s="202"/>
-      <c r="Q55" s="202"/>
-      <c r="R55" s="202"/>
-      <c r="S55" s="202"/>
-      <c r="T55" s="202"/>
-      <c r="U55" s="202"/>
-      <c r="V55" s="202"/>
-    </row>
-    <row r="56" spans="1:23" s="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="110" t="str">
+      <c r="I55" s="157"/>
+      <c r="K55" s="201"/>
+      <c r="L55" s="201"/>
+      <c r="M55" s="201"/>
+      <c r="N55" s="201"/>
+      <c r="O55" s="201"/>
+      <c r="P55" s="201"/>
+      <c r="Q55" s="201"/>
+      <c r="R55" s="201"/>
+      <c r="S55" s="201"/>
+      <c r="T55" s="201"/>
+      <c r="U55" s="201"/>
+      <c r="V55" s="201"/>
+    </row>
+    <row r="56" spans="1:23" s="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A55)+1)</f>
         <v>ID-26</v>
       </c>
-      <c r="B56" s="110" t="s">
+      <c r="B56" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="C56" s="110" t="s">
+      <c r="C56" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="110" t="s">
+      <c r="D56" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="110"/>
-      <c r="F56" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="227">
+      <c r="E56" s="109"/>
+      <c r="F56" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="204">
         <v>42585</v>
       </c>
-      <c r="I56" s="158"/>
-      <c r="K56" s="204"/>
-      <c r="L56" s="204"/>
-      <c r="M56" s="204"/>
-      <c r="N56" s="204"/>
-      <c r="O56" s="204"/>
-      <c r="P56" s="204"/>
-      <c r="Q56" s="204"/>
-      <c r="R56" s="204"/>
-      <c r="S56" s="204"/>
-      <c r="T56" s="204"/>
-      <c r="U56" s="204"/>
-      <c r="V56" s="204"/>
-    </row>
-    <row r="57" spans="1:23" s="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="143"/>
-      <c r="B57" s="143" t="s">
+      <c r="I56" s="157"/>
+      <c r="K56" s="203"/>
+      <c r="L56" s="203"/>
+      <c r="M56" s="203"/>
+      <c r="N56" s="203"/>
+      <c r="O56" s="203"/>
+      <c r="P56" s="203"/>
+      <c r="Q56" s="203"/>
+      <c r="R56" s="203"/>
+      <c r="S56" s="203"/>
+      <c r="T56" s="203"/>
+      <c r="U56" s="203"/>
+      <c r="V56" s="203"/>
+    </row>
+    <row r="57" spans="1:23" s="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="142"/>
+      <c r="B57" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="143"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="143"/>
-      <c r="I57" s="143"/>
-      <c r="K57" s="204"/>
-      <c r="L57" s="204"/>
-      <c r="M57" s="204"/>
-      <c r="N57" s="204"/>
-      <c r="O57" s="204"/>
-      <c r="P57" s="204"/>
-      <c r="Q57" s="204"/>
-      <c r="R57" s="204"/>
-      <c r="S57" s="204"/>
-      <c r="T57" s="204"/>
-      <c r="U57" s="204"/>
-      <c r="V57" s="204"/>
-    </row>
-    <row r="58" spans="1:23" s="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="110" t="str">
+      <c r="C57" s="142"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="139"/>
+      <c r="G57" s="139"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="142"/>
+      <c r="K57" s="203"/>
+      <c r="L57" s="203"/>
+      <c r="M57" s="203"/>
+      <c r="N57" s="203"/>
+      <c r="O57" s="203"/>
+      <c r="P57" s="203"/>
+      <c r="Q57" s="203"/>
+      <c r="R57" s="203"/>
+      <c r="S57" s="203"/>
+      <c r="T57" s="203"/>
+      <c r="U57" s="203"/>
+      <c r="V57" s="203"/>
+    </row>
+    <row r="58" spans="1:23" s="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A57)+1)</f>
         <v>ID-27</v>
       </c>
-      <c r="B58" s="110" t="s">
+      <c r="B58" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="110" t="s">
+      <c r="C58" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="110" t="s">
+      <c r="D58" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="E58" s="110"/>
-      <c r="F58" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="227">
+      <c r="E58" s="109"/>
+      <c r="F58" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="204">
         <v>42585</v>
       </c>
-      <c r="I58" s="110"/>
-      <c r="K58" s="204"/>
-      <c r="L58" s="204"/>
-      <c r="M58" s="204"/>
-      <c r="N58" s="204"/>
-      <c r="O58" s="204"/>
-      <c r="P58" s="204"/>
-      <c r="Q58" s="204"/>
-      <c r="R58" s="204"/>
-      <c r="S58" s="204"/>
-      <c r="T58" s="204"/>
-      <c r="U58" s="204"/>
-      <c r="V58" s="204"/>
-    </row>
-    <row r="59" spans="1:23" s="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="110" t="str">
+      <c r="I58" s="109"/>
+      <c r="K58" s="203"/>
+      <c r="L58" s="203"/>
+      <c r="M58" s="203"/>
+      <c r="N58" s="203"/>
+      <c r="O58" s="203"/>
+      <c r="P58" s="203"/>
+      <c r="Q58" s="203"/>
+      <c r="R58" s="203"/>
+      <c r="S58" s="203"/>
+      <c r="T58" s="203"/>
+      <c r="U58" s="203"/>
+      <c r="V58" s="203"/>
+    </row>
+    <row r="59" spans="1:23" s="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A58)+1)</f>
         <v>ID-28</v>
       </c>
-      <c r="B59" s="110" t="s">
+      <c r="B59" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="110" t="s">
+      <c r="C59" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="110" t="s">
+      <c r="D59" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="110"/>
-      <c r="F59" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="227">
+      <c r="E59" s="109"/>
+      <c r="F59" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="204">
         <v>42585</v>
       </c>
-      <c r="I59" s="110"/>
-      <c r="K59" s="204"/>
-      <c r="L59" s="204"/>
-      <c r="M59" s="204"/>
-      <c r="N59" s="204"/>
-      <c r="O59" s="204"/>
-      <c r="P59" s="204"/>
-      <c r="Q59" s="204"/>
-      <c r="R59" s="204"/>
-      <c r="S59" s="204"/>
-      <c r="T59" s="204"/>
-      <c r="U59" s="204"/>
-      <c r="V59" s="204"/>
-    </row>
-    <row r="60" spans="1:23" s="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="110" t="str">
+      <c r="I59" s="109"/>
+      <c r="K59" s="203"/>
+      <c r="L59" s="203"/>
+      <c r="M59" s="203"/>
+      <c r="N59" s="203"/>
+      <c r="O59" s="203"/>
+      <c r="P59" s="203"/>
+      <c r="Q59" s="203"/>
+      <c r="R59" s="203"/>
+      <c r="S59" s="203"/>
+      <c r="T59" s="203"/>
+      <c r="U59" s="203"/>
+      <c r="V59" s="203"/>
+    </row>
+    <row r="60" spans="1:23" s="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A59)+1)</f>
         <v>ID-29</v>
       </c>
-      <c r="B60" s="110" t="s">
+      <c r="B60" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="110" t="s">
+      <c r="C60" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="110" t="s">
+      <c r="D60" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="110"/>
-      <c r="F60" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="227">
+      <c r="E60" s="109"/>
+      <c r="F60" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="204">
         <v>42585</v>
       </c>
-      <c r="I60" s="110"/>
-      <c r="K60" s="204"/>
-      <c r="L60" s="204"/>
-      <c r="M60" s="204"/>
-      <c r="N60" s="204"/>
-      <c r="O60" s="204"/>
-      <c r="P60" s="204"/>
-      <c r="Q60" s="204"/>
-      <c r="R60" s="204"/>
-      <c r="S60" s="204"/>
-      <c r="T60" s="204"/>
-      <c r="U60" s="204"/>
-      <c r="V60" s="204"/>
-    </row>
-    <row r="61" spans="1:23" s="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="110" t="str">
+      <c r="I60" s="109"/>
+      <c r="K60" s="203"/>
+      <c r="L60" s="203"/>
+      <c r="M60" s="203"/>
+      <c r="N60" s="203"/>
+      <c r="O60" s="203"/>
+      <c r="P60" s="203"/>
+      <c r="Q60" s="203"/>
+      <c r="R60" s="203"/>
+      <c r="S60" s="203"/>
+      <c r="T60" s="203"/>
+      <c r="U60" s="203"/>
+      <c r="V60" s="203"/>
+    </row>
+    <row r="61" spans="1:23" s="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A60)+1)</f>
         <v>ID-30</v>
       </c>
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="110" t="s">
+      <c r="C61" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="110" t="s">
+      <c r="D61" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="E61" s="110"/>
-      <c r="F61" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="227">
+      <c r="E61" s="109"/>
+      <c r="F61" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="204">
         <v>42585</v>
       </c>
-      <c r="I61" s="110"/>
-      <c r="K61" s="204"/>
-      <c r="L61" s="204"/>
-      <c r="M61" s="204"/>
-      <c r="N61" s="204"/>
-      <c r="O61" s="204"/>
-      <c r="P61" s="204"/>
-      <c r="Q61" s="204"/>
-      <c r="R61" s="204"/>
-      <c r="S61" s="204"/>
-      <c r="T61" s="204"/>
-      <c r="U61" s="204"/>
-      <c r="V61" s="204"/>
-    </row>
-    <row r="62" spans="1:23" s="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="110" t="str">
+      <c r="I61" s="109"/>
+      <c r="K61" s="203"/>
+      <c r="L61" s="203"/>
+      <c r="M61" s="203"/>
+      <c r="N61" s="203"/>
+      <c r="O61" s="203"/>
+      <c r="P61" s="203"/>
+      <c r="Q61" s="203"/>
+      <c r="R61" s="203"/>
+      <c r="S61" s="203"/>
+      <c r="T61" s="203"/>
+      <c r="U61" s="203"/>
+      <c r="V61" s="203"/>
+    </row>
+    <row r="62" spans="1:23" s="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A61)+1)</f>
         <v>ID-31</v>
       </c>
-      <c r="B62" s="110" t="s">
+      <c r="B62" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="110" t="s">
+      <c r="C62" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="110" t="s">
+      <c r="D62" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="110"/>
-      <c r="F62" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="227">
+      <c r="E62" s="109"/>
+      <c r="F62" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="204">
         <v>42585</v>
       </c>
-      <c r="I62" s="110"/>
-      <c r="K62" s="204"/>
-      <c r="L62" s="204"/>
-      <c r="M62" s="204"/>
-      <c r="N62" s="204"/>
-      <c r="O62" s="204"/>
-      <c r="P62" s="204"/>
-      <c r="Q62" s="204"/>
-      <c r="R62" s="204"/>
-      <c r="S62" s="204"/>
-      <c r="T62" s="204"/>
-      <c r="U62" s="204"/>
-      <c r="V62" s="204"/>
-    </row>
-    <row r="63" spans="1:23" s="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="110" t="str">
+      <c r="I62" s="109"/>
+      <c r="K62" s="203"/>
+      <c r="L62" s="203"/>
+      <c r="M62" s="203"/>
+      <c r="N62" s="203"/>
+      <c r="O62" s="203"/>
+      <c r="P62" s="203"/>
+      <c r="Q62" s="203"/>
+      <c r="R62" s="203"/>
+      <c r="S62" s="203"/>
+      <c r="T62" s="203"/>
+      <c r="U62" s="203"/>
+      <c r="V62" s="203"/>
+    </row>
+    <row r="63" spans="1:23" s="153" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A62)+1)</f>
         <v>ID-32</v>
       </c>
-      <c r="B63" s="110" t="s">
+      <c r="B63" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="110" t="s">
+      <c r="C63" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="110" t="s">
+      <c r="D63" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="E63" s="110"/>
-      <c r="F63" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="227">
+      <c r="E63" s="109"/>
+      <c r="F63" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="204">
         <v>42585</v>
       </c>
-      <c r="I63" s="110"/>
-      <c r="K63" s="204"/>
-      <c r="L63" s="204"/>
-      <c r="M63" s="204"/>
-      <c r="N63" s="204"/>
-      <c r="O63" s="204"/>
-      <c r="P63" s="204"/>
-      <c r="Q63" s="204"/>
-      <c r="R63" s="204"/>
-      <c r="S63" s="204"/>
-      <c r="T63" s="204"/>
-      <c r="U63" s="204"/>
-      <c r="V63" s="204"/>
+      <c r="I63" s="109"/>
+      <c r="K63" s="203"/>
+      <c r="L63" s="203"/>
+      <c r="M63" s="203"/>
+      <c r="N63" s="203"/>
+      <c r="O63" s="203"/>
+      <c r="P63" s="203"/>
+      <c r="Q63" s="203"/>
+      <c r="R63" s="203"/>
+      <c r="S63" s="203"/>
+      <c r="T63" s="203"/>
+      <c r="U63" s="203"/>
+      <c r="V63" s="203"/>
     </row>
     <row r="64" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="110" t="str">
+      <c r="A64" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A63)+1)</f>
         <v>ID-33</v>
       </c>
-      <c r="B64" s="110" t="s">
+      <c r="B64" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="110" t="s">
+      <c r="C64" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="110" t="s">
+      <c r="D64" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="110"/>
-      <c r="F64" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="227">
+      <c r="E64" s="109"/>
+      <c r="F64" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="204">
         <v>42585</v>
       </c>
-      <c r="I64" s="110"/>
+      <c r="I64" s="109"/>
     </row>
     <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="110" t="str">
+      <c r="A65" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A64)+1)</f>
         <v>ID-34</v>
       </c>
-      <c r="B65" s="110" t="s">
+      <c r="B65" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="110" t="s">
+      <c r="C65" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="110" t="s">
+      <c r="D65" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="110"/>
-      <c r="F65" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="227">
+      <c r="E65" s="109"/>
+      <c r="F65" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="204">
         <v>42585</v>
       </c>
-      <c r="I65" s="110"/>
+      <c r="I65" s="109"/>
     </row>
     <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="110" t="str">
+      <c r="A66" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A65)+1)</f>
         <v>ID-35</v>
       </c>
-      <c r="B66" s="110" t="s">
+      <c r="B66" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="110" t="s">
+      <c r="C66" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="D66" s="110" t="s">
+      <c r="D66" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="110"/>
-      <c r="F66" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="227">
+      <c r="E66" s="109"/>
+      <c r="F66" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="204">
         <v>42585</v>
       </c>
-      <c r="I66" s="110"/>
+      <c r="I66" s="109"/>
     </row>
     <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="110" t="str">
+      <c r="A67" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A66)+1)</f>
         <v>ID-36</v>
       </c>
-      <c r="B67" s="110" t="s">
+      <c r="B67" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="110" t="s">
+      <c r="C67" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="110" t="s">
+      <c r="D67" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="E67" s="110"/>
-      <c r="F67" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="227">
+      <c r="E67" s="109"/>
+      <c r="F67" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="204">
         <v>42585</v>
       </c>
-      <c r="I67" s="110"/>
+      <c r="I67" s="109"/>
     </row>
     <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="110" t="str">
+      <c r="A68" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A67)+1)</f>
         <v>ID-37</v>
       </c>
-      <c r="B68" s="110" t="s">
+      <c r="B68" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="110" t="s">
+      <c r="C68" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="110" t="s">
+      <c r="D68" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="E68" s="110"/>
-      <c r="F68" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="227">
+      <c r="E68" s="109"/>
+      <c r="F68" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="204">
         <v>42585</v>
       </c>
-      <c r="I68" s="110"/>
+      <c r="I68" s="109"/>
     </row>
     <row r="69" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="110" t="str">
+      <c r="A69" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A68)+1)</f>
         <v>ID-38</v>
       </c>
-      <c r="B69" s="110" t="s">
+      <c r="B69" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="110" t="s">
+      <c r="C69" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="110" t="s">
+      <c r="D69" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="E69" s="110"/>
-      <c r="F69" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="227">
+      <c r="E69" s="109"/>
+      <c r="F69" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="204">
         <v>42585</v>
       </c>
-      <c r="I69" s="110"/>
+      <c r="I69" s="109"/>
     </row>
     <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="110" t="str">
+      <c r="A70" s="109" t="str">
         <f>"ID-" &amp; (COUNTA(A$9:A69)+1)</f>
         <v>ID-39</v>
       </c>
-      <c r="B70" s="110" t="s">
+      <c r="B70" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="C70" s="110" t="s">
+      <c r="C70" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="D70" s="110" t="s">
+      <c r="D70" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="E70" s="110"/>
-      <c r="F70" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="227">
+      <c r="E70" s="109"/>
+      <c r="F70" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="204">
         <v>42585</v>
       </c>
-      <c r="I70" s="110"/>
+      <c r="I70" s="109"/>
     </row>
   </sheetData>
   <dataConsolidate>
@@ -6445,7 +6449,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="121" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="120" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" style="99" customWidth="1"/>
     <col min="3" max="3" width="30.5" style="99" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" style="99" customWidth="1"/>
@@ -6461,19 +6465,19 @@
     <col min="18" max="16384" width="15.1640625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="122" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:10" s="121" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="125"/>
-    </row>
-    <row r="2" spans="1:10" s="122" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="124"/>
+    </row>
+    <row r="2" spans="1:10" s="121" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="125" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="219" t="s">
@@ -6488,8 +6492,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+    <row r="3" spans="1:10" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="126" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="219" t="s">
@@ -6504,8 +6508,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="122" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="126" t="s">
+    <row r="4" spans="1:10" s="121" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="125" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="220" t="s">
@@ -6518,17 +6522,17 @@
       <c r="G4" s="220"/>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="1:10" s="122" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="129" t="s">
+    <row r="5" spans="1:10" s="121" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="129" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="223" t="s">
@@ -6540,8 +6544,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="122" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="118">
+    <row r="6" spans="1:10" s="121" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="117">
         <f>COUNTIF(F11:G247,"Pass")</f>
         <v>44</v>
       </c>
@@ -6567,28 +6571,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="122" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="151"/>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
+    <row r="7" spans="1:10" s="121" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="150"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
       <c r="J7" s="89"/>
     </row>
-    <row r="8" spans="1:10" s="122" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="151"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
+    <row r="8" spans="1:10" s="121" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="150"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
       <c r="J8" s="89"/>
     </row>
-    <row r="9" spans="1:10" s="122" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:10" s="122" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="121" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:10" s="121" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="51" t="s">
         <v>22</v>
       </c>
@@ -6622,17 +6626,17 @@
       <c r="B11" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="149"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="148"/>
       <c r="J11" s="99"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="175" t="str">
+      <c r="A12" s="174" t="str">
         <f t="shared" ref="A12:A38" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Mod_login-2]</v>
       </c>
@@ -6645,672 +6649,672 @@
       <c r="D12" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="E12" s="150" t="s">
+      <c r="E12" s="149" t="s">
         <v>311</v>
       </c>
-      <c r="F12" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="227">
+      <c r="F12" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="204">
         <v>42616</v>
       </c>
-      <c r="I12" s="146"/>
+      <c r="I12" s="145"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="53"/>
       <c r="B13" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="149"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="148"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="175" t="str">
+      <c r="A14" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-4]</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="109" t="s">
         <v>203</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="109" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="E14" s="144" t="s">
+      <c r="E14" s="143" t="s">
         <v>312</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="227">
+      <c r="F14" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="204">
         <v>42616</v>
       </c>
-      <c r="I14" s="146"/>
+      <c r="I14" s="145"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="53"/>
       <c r="B15" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="149"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="148"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="175" t="str">
+      <c r="A16" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-6]</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="109" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="109" t="s">
         <v>246</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="109" t="s">
         <v>247</v>
       </c>
-      <c r="E16" s="144" t="s">
+      <c r="E16" s="143" t="s">
         <v>313</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="227">
+      <c r="F16" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="204">
         <v>42616</v>
       </c>
-      <c r="I16" s="146"/>
+      <c r="I16" s="145"/>
     </row>
     <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="53"/>
       <c r="B17" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="149"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="148"/>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="175" t="str">
+      <c r="A18" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-8]</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="109" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="110" t="s">
+      <c r="C18" s="109" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="109" t="s">
         <v>251</v>
       </c>
-      <c r="E18" s="110" t="s">
+      <c r="E18" s="109" t="s">
         <v>252</v>
       </c>
-      <c r="F18" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="227">
+      <c r="F18" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="204">
         <v>42616</v>
       </c>
-      <c r="I18" s="110"/>
+      <c r="I18" s="109"/>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="53"/>
-      <c r="B19" s="147" t="s">
+      <c r="B19" s="146" t="s">
         <v>253</v>
       </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="190"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="189"/>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="175" t="str">
+      <c r="A20" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-10]</v>
       </c>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="109" t="s">
         <v>279</v>
       </c>
-      <c r="C20" s="110" t="s">
+      <c r="C20" s="109" t="s">
         <v>285</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D20" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="E20" s="110" t="s">
+      <c r="E20" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="F20" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="227">
+      <c r="F20" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="204">
         <v>42616</v>
       </c>
-      <c r="I20" s="110"/>
+      <c r="I20" s="109"/>
     </row>
     <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="175" t="str">
+      <c r="A21" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-11]</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="109" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="109" t="s">
         <v>286</v>
       </c>
-      <c r="D21" s="110" t="s">
+      <c r="D21" s="109" t="s">
         <v>256</v>
       </c>
-      <c r="E21" s="110" t="s">
+      <c r="E21" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="F21" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="227">
+      <c r="F21" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="204">
         <v>42616</v>
       </c>
-      <c r="I21" s="110"/>
+      <c r="I21" s="109"/>
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="175" t="str">
+      <c r="A22" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-12]</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="109" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="110" t="s">
+      <c r="C22" s="109" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="109" t="s">
         <v>256</v>
       </c>
-      <c r="E22" s="192" t="s">
+      <c r="E22" s="191" t="s">
         <v>266</v>
       </c>
-      <c r="F22" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="227">
+      <c r="F22" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="204">
         <v>42616</v>
       </c>
-      <c r="I22" s="192"/>
+      <c r="I22" s="191"/>
     </row>
     <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="175" t="str">
+      <c r="A23" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-13]</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="109" t="s">
         <v>258</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="109" t="s">
         <v>273</v>
       </c>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="109" t="s">
         <v>262</v>
       </c>
-      <c r="E23" s="192" t="s">
+      <c r="E23" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="F23" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="227">
+      <c r="F23" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="204">
         <v>42616</v>
       </c>
-      <c r="I23" s="110"/>
+      <c r="I23" s="109"/>
     </row>
     <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="175" t="str">
+      <c r="A24" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-14]</v>
       </c>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="109" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="D24" s="110" t="s">
+      <c r="D24" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="192" t="s">
+      <c r="E24" s="191" t="s">
         <v>268</v>
       </c>
-      <c r="F24" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="227">
+      <c r="F24" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="204">
         <v>42616</v>
       </c>
-      <c r="I24" s="110"/>
+      <c r="I24" s="109"/>
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="175" t="str">
+      <c r="A25" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-15]</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="109" t="s">
         <v>260</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="D25" s="110" t="s">
+      <c r="D25" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="E25" s="192" t="s">
+      <c r="E25" s="191" t="s">
         <v>269</v>
       </c>
-      <c r="F25" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="227">
+      <c r="F25" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="204">
         <v>42616</v>
       </c>
-      <c r="I25" s="192"/>
+      <c r="I25" s="191"/>
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="175" t="str">
+      <c r="A26" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-16]</v>
       </c>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="109" t="s">
         <v>259</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="109" t="s">
         <v>274</v>
       </c>
-      <c r="D26" s="110" t="s">
+      <c r="D26" s="109" t="s">
         <v>256</v>
       </c>
-      <c r="E26" s="192" t="s">
+      <c r="E26" s="191" t="s">
         <v>270</v>
       </c>
-      <c r="F26" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="227">
+      <c r="F26" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="204">
         <v>42616</v>
       </c>
-      <c r="I26" s="110"/>
+      <c r="I26" s="109"/>
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="175" t="str">
+      <c r="A27" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-17]</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="109" t="s">
         <v>255</v>
       </c>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="109" t="s">
         <v>275</v>
       </c>
-      <c r="D27" s="110" t="s">
+      <c r="D27" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="E27" s="192" t="s">
+      <c r="E27" s="191" t="s">
         <v>271</v>
       </c>
-      <c r="F27" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="227">
+      <c r="F27" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="204">
         <v>42616</v>
       </c>
-      <c r="I27" s="110"/>
+      <c r="I27" s="109"/>
     </row>
     <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="175" t="str">
+      <c r="A28" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-18]</v>
       </c>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="109" t="s">
         <v>260</v>
       </c>
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="109" t="s">
         <v>276</v>
       </c>
-      <c r="D28" s="110" t="s">
+      <c r="D28" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="E28" s="192" t="s">
+      <c r="E28" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="F28" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="227">
+      <c r="F28" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="204">
         <v>42616</v>
       </c>
-      <c r="I28" s="110"/>
+      <c r="I28" s="109"/>
     </row>
     <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="53"/>
-      <c r="B29" s="147" t="s">
+      <c r="B29" s="146" t="s">
         <v>278</v>
       </c>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="190"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="189"/>
     </row>
     <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="175" t="str">
+      <c r="A30" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-20]</v>
       </c>
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="C30" s="110" t="s">
+      <c r="C30" s="109" t="s">
         <v>288</v>
       </c>
-      <c r="D30" s="110" t="s">
+      <c r="D30" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="E30" s="192" t="s">
+      <c r="E30" s="191" t="s">
         <v>302</v>
       </c>
-      <c r="F30" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="227">
+      <c r="F30" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="204">
         <v>42616</v>
       </c>
-      <c r="I30" s="192"/>
+      <c r="I30" s="191"/>
     </row>
     <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="175" t="str">
+      <c r="A31" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-21]</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="109" t="s">
         <v>290</v>
       </c>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="E31" s="192" t="s">
+      <c r="E31" s="191" t="s">
         <v>303</v>
       </c>
-      <c r="F31" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="227">
+      <c r="F31" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="204">
         <v>42616</v>
       </c>
-      <c r="I31" s="192"/>
+      <c r="I31" s="191"/>
     </row>
     <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="175" t="str">
+      <c r="A32" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-22]</v>
       </c>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="C32" s="110" t="s">
+      <c r="C32" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="D32" s="110" t="s">
+      <c r="D32" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="E32" s="192" t="s">
+      <c r="E32" s="191" t="s">
         <v>304</v>
       </c>
-      <c r="F32" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="227">
+      <c r="F32" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="204">
         <v>42616</v>
       </c>
-      <c r="I32" s="192"/>
+      <c r="I32" s="191"/>
     </row>
     <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="175" t="str">
+      <c r="A33" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-23]</v>
       </c>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="C33" s="110" t="s">
+      <c r="C33" s="109" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="D33" s="109" t="s">
         <v>294</v>
       </c>
-      <c r="E33" s="192" t="s">
+      <c r="E33" s="191" t="s">
         <v>305</v>
       </c>
-      <c r="F33" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="227">
+      <c r="F33" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="204">
         <v>42616</v>
       </c>
-      <c r="I33" s="193"/>
+      <c r="I33" s="192"/>
     </row>
     <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="175" t="str">
+      <c r="A34" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-24]</v>
       </c>
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="C34" s="110" t="s">
+      <c r="C34" s="109" t="s">
         <v>295</v>
       </c>
-      <c r="D34" s="110" t="s">
+      <c r="D34" s="109" t="s">
         <v>296</v>
       </c>
-      <c r="E34" s="192" t="s">
+      <c r="E34" s="191" t="s">
         <v>306</v>
       </c>
-      <c r="F34" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="227">
+      <c r="F34" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="204">
         <v>42616</v>
       </c>
-      <c r="I34" s="193"/>
+      <c r="I34" s="192"/>
     </row>
     <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="175" t="str">
+      <c r="A35" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-25]</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="C35" s="110" t="s">
+      <c r="C35" s="109" t="s">
         <v>297</v>
       </c>
-      <c r="D35" s="110" t="s">
+      <c r="D35" s="109" t="s">
         <v>296</v>
       </c>
-      <c r="E35" s="192" t="s">
+      <c r="E35" s="191" t="s">
         <v>307</v>
       </c>
-      <c r="F35" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="227">
+      <c r="F35" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="204">
         <v>42616</v>
       </c>
-      <c r="I35" s="193"/>
+      <c r="I35" s="192"/>
     </row>
     <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="175" t="str">
+      <c r="A36" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-26]</v>
       </c>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="C36" s="110" t="s">
+      <c r="C36" s="109" t="s">
         <v>298</v>
       </c>
-      <c r="D36" s="110" t="s">
+      <c r="D36" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="E36" s="192" t="s">
+      <c r="E36" s="191" t="s">
         <v>308</v>
       </c>
-      <c r="F36" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="227">
+      <c r="F36" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="204">
         <v>42616</v>
       </c>
-      <c r="I36" s="193"/>
+      <c r="I36" s="192"/>
     </row>
     <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="175" t="str">
+      <c r="A37" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-27]</v>
       </c>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="C37" s="110" t="s">
+      <c r="C37" s="109" t="s">
         <v>299</v>
       </c>
-      <c r="D37" s="110" t="s">
+      <c r="D37" s="109" t="s">
         <v>300</v>
       </c>
-      <c r="E37" s="192" t="s">
+      <c r="E37" s="191" t="s">
         <v>309</v>
       </c>
-      <c r="F37" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="227">
+      <c r="F37" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="204">
         <v>42616</v>
       </c>
-      <c r="I37" s="193"/>
+      <c r="I37" s="192"/>
     </row>
     <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="175" t="str">
+      <c r="A38" s="174" t="str">
         <f t="shared" si="0"/>
         <v>[Mod_login-28]</v>
       </c>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="110" t="s">
+      <c r="C38" s="109" t="s">
         <v>301</v>
       </c>
-      <c r="D38" s="110" t="s">
+      <c r="D38" s="109" t="s">
         <v>300</v>
       </c>
-      <c r="E38" s="192" t="s">
+      <c r="E38" s="191" t="s">
         <v>310</v>
       </c>
-      <c r="F38" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="227">
+      <c r="F38" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="204">
         <v>42616</v>
       </c>
-      <c r="I38" s="193"/>
+      <c r="I38" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7347,7 +7351,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="121" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="120" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" style="99" customWidth="1"/>
     <col min="3" max="3" width="33" style="99" customWidth="1"/>
     <col min="4" max="4" width="28.83203125" style="99" customWidth="1"/>
@@ -7363,19 +7367,19 @@
     <col min="18" max="16384" width="15.1640625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="122" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:10" s="121" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="125"/>
-    </row>
-    <row r="2" spans="1:10" s="122" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="124"/>
+    </row>
+    <row r="2" spans="1:10" s="121" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="125" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="219" t="s">
@@ -7390,8 +7394,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+    <row r="3" spans="1:10" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="126" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="219" t="s">
@@ -7406,8 +7410,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="122" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="126" t="s">
+    <row r="4" spans="1:10" s="121" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="125" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="220" t="s">
@@ -7420,17 +7424,17 @@
       <c r="G4" s="220"/>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="1:10" s="122" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="129" t="s">
+    <row r="5" spans="1:10" s="121" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="129" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="223" t="s">
@@ -7442,8 +7446,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="122" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="118">
+    <row r="6" spans="1:10" s="121" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="117">
         <f>COUNTIF(F11:G259,"Pass")</f>
         <v>22</v>
       </c>
@@ -7469,28 +7473,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="122" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="151"/>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
+    <row r="7" spans="1:10" s="121" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="150"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
       <c r="J7" s="89"/>
     </row>
-    <row r="8" spans="1:10" s="122" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="151"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
+    <row r="8" spans="1:10" s="121" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="150"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
       <c r="J8" s="89"/>
     </row>
-    <row r="9" spans="1:10" s="122" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:10" s="122" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="121" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:10" s="121" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="52" t="s">
         <v>22</v>
       </c>
@@ -7519,128 +7523,128 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="122" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="147"/>
-      <c r="B11" s="148" t="s">
+    <row r="11" spans="1:10" s="121" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="146"/>
+      <c r="B11" s="147" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="149"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="148"/>
     </row>
     <row r="12" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="139" t="str">
+      <c r="A12" s="138" t="str">
         <f t="shared" ref="A12:A16" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-2]</v>
       </c>
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="175" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="176" t="s">
+      <c r="C12" s="175" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="176" t="s">
+      <c r="D12" s="175" t="s">
         <v>200</v>
       </c>
-      <c r="E12" s="150" t="s">
+      <c r="E12" s="149" t="s">
         <v>325</v>
       </c>
-      <c r="F12" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="227">
+      <c r="F12" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="204">
         <v>42646</v>
       </c>
-      <c r="I12" s="177"/>
+      <c r="I12" s="176"/>
     </row>
     <row r="13" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="53"/>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="147" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="149"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="148"/>
     </row>
     <row r="14" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="139" t="str">
+      <c r="A14" s="138" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-4]</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="109" t="s">
         <v>205</v>
       </c>
-      <c r="E14" s="144" t="s">
+      <c r="E14" s="143" t="s">
         <v>326</v>
       </c>
-      <c r="F14" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="227">
+      <c r="F14" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="204">
         <v>42646</v>
       </c>
-      <c r="I14" s="145"/>
+      <c r="I14" s="144"/>
     </row>
     <row r="15" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="53"/>
-      <c r="B15" s="148" t="s">
+      <c r="B15" s="147" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="149"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="148"/>
     </row>
     <row r="16" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="139" t="str">
+      <c r="A16" s="138" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-6]</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="109" t="s">
         <v>240</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="109" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="109" t="s">
         <v>238</v>
       </c>
-      <c r="E16" s="144" t="s">
+      <c r="E16" s="143" t="s">
         <v>327</v>
       </c>
-      <c r="F16" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="227">
+      <c r="F16" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="204">
         <v>42646</v>
       </c>
-      <c r="I16" s="145"/>
+      <c r="I16" s="144"/>
     </row>
     <row r="17" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="53"/>
@@ -7649,166 +7653,166 @@
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="149"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="148"/>
     </row>
     <row r="18" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="178" t="str">
+      <c r="A18" s="177" t="str">
         <f t="shared" ref="A18:A27" si="1">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-8]</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="183" t="s">
+      <c r="C18" s="182" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="184" t="s">
+      <c r="D18" s="183" t="s">
         <v>221</v>
       </c>
-      <c r="E18" s="185"/>
-      <c r="F18" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="227">
+      <c r="E18" s="184"/>
+      <c r="F18" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="204">
         <v>42646</v>
       </c>
-      <c r="I18" s="186"/>
+      <c r="I18" s="185"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="187"/>
-      <c r="B19" s="188" t="s">
+      <c r="A19" s="186"/>
+      <c r="B19" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="C19" s="188"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="189"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="188"/>
       <c r="J19" s="99"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="110" t="str">
+      <c r="A20" s="109" t="str">
         <f t="shared" si="1"/>
         <v>[Admin_login-10]</v>
       </c>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="191" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="192" t="s">
+      <c r="D20" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="E20" s="192" t="s">
+      <c r="E20" s="191" t="s">
         <v>319</v>
       </c>
-      <c r="F20" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="227">
+      <c r="F20" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="204">
         <v>42646</v>
       </c>
-      <c r="I20" s="195"/>
+      <c r="I20" s="194"/>
       <c r="J20" s="99"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="110" t="str">
+      <c r="A21" s="109" t="str">
         <f t="shared" si="1"/>
         <v>[Admin_login-11]</v>
       </c>
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="168" t="s">
         <v>228</v>
       </c>
-      <c r="C21" s="192" t="s">
+      <c r="C21" s="191" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="192" t="s">
+      <c r="D21" s="191" t="s">
         <v>230</v>
       </c>
-      <c r="E21" s="192" t="s">
+      <c r="E21" s="191" t="s">
         <v>318</v>
       </c>
-      <c r="F21" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="227">
+      <c r="F21" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="204">
         <v>42646</v>
       </c>
-      <c r="I21" s="195"/>
+      <c r="I21" s="194"/>
       <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="110" t="str">
+      <c r="A22" s="109" t="str">
         <f t="shared" si="1"/>
         <v>[Admin_login-12]</v>
       </c>
-      <c r="B22" s="169" t="s">
+      <c r="B22" s="168" t="s">
         <v>314</v>
       </c>
-      <c r="C22" s="192" t="s">
+      <c r="C22" s="191" t="s">
         <v>315</v>
       </c>
-      <c r="D22" s="192" t="s">
+      <c r="D22" s="191" t="s">
         <v>230</v>
       </c>
-      <c r="E22" s="192" t="s">
+      <c r="E22" s="191" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="227">
+      <c r="F22" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="204">
         <v>42646</v>
       </c>
-      <c r="I22" s="195"/>
+      <c r="I22" s="194"/>
       <c r="J22" s="99"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="110" t="str">
+      <c r="A23" s="109" t="str">
         <f t="shared" si="1"/>
         <v>[Admin_login-13]</v>
       </c>
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="168" t="s">
         <v>316</v>
       </c>
-      <c r="C23" s="192" t="s">
+      <c r="C23" s="191" t="s">
         <v>317</v>
       </c>
-      <c r="D23" s="192" t="s">
+      <c r="D23" s="191" t="s">
         <v>230</v>
       </c>
-      <c r="E23" s="191" t="s">
+      <c r="E23" s="190" t="s">
         <v>321</v>
       </c>
-      <c r="F23" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="227">
+      <c r="F23" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="204">
         <v>42646</v>
       </c>
-      <c r="I23" s="194"/>
+      <c r="I23" s="193"/>
       <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7826,90 +7830,90 @@
       <c r="J24" s="99"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="110" t="str">
+      <c r="A25" s="109" t="str">
         <f t="shared" si="1"/>
         <v>[Admin_login-15]</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="109" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="109" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="110" t="s">
+      <c r="D25" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="E25" s="110" t="s">
+      <c r="E25" s="109" t="s">
         <v>322</v>
       </c>
-      <c r="F25" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="227">
+      <c r="F25" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="204">
         <v>42646</v>
       </c>
-      <c r="I25" s="200"/>
+      <c r="I25" s="199"/>
       <c r="J25" s="99"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="110" t="str">
+      <c r="A26" s="109" t="str">
         <f t="shared" si="1"/>
         <v>[Admin_login-16]</v>
       </c>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="109" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="D26" s="110" t="s">
+      <c r="D26" s="109" t="s">
         <v>233</v>
       </c>
-      <c r="E26" s="110" t="s">
+      <c r="E26" s="109" t="s">
         <v>323</v>
       </c>
-      <c r="F26" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="227">
+      <c r="F26" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="204">
         <v>42646</v>
       </c>
-      <c r="I26" s="200"/>
+      <c r="I26" s="199"/>
       <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="110" t="str">
+      <c r="A27" s="109" t="str">
         <f t="shared" si="1"/>
         <v>[Admin_login-17]</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="109" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="109" t="s">
         <v>235</v>
       </c>
-      <c r="D27" s="110" t="s">
+      <c r="D27" s="109" t="s">
         <v>233</v>
       </c>
-      <c r="E27" s="110" t="s">
+      <c r="E27" s="109" t="s">
         <v>324</v>
       </c>
-      <c r="F27" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="227">
+      <c r="F27" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="204">
         <v>42646</v>
       </c>
-      <c r="I27" s="200"/>
+      <c r="I27" s="199"/>
       <c r="J27" s="99"/>
     </row>
   </sheetData>
